--- a/bh3/546144605386407663_2021-07-11_18-00-00.xlsx
+++ b/bh3/546144605386407663_2021-07-11_18-00-00.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:49:19</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44391.32591435185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4897427282</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:50:29</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44389.9933912037</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>4893399330</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:32:52</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44389.9811574074</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:26:15</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44389.93489583334</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:57:14</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44389.87307870371</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,10 +912,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:56:28</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44389.8725462963</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -973,10 +977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:18:52</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44389.84643518519</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1044,10 +1046,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:06</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44389.84104166667</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1119,10 +1119,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:54:46</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44389.82969907407</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1186,10 +1184,8 @@
           <t>4889879946</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:52:29</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44389.82811342592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1253,10 +1249,8 @@
           <t>4888295202</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:51:43</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44389.82758101852</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1320,10 +1314,8 @@
           <t>4893399330</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:43:29</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44389.82186342592</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1395,10 +1387,8 @@
           <t>4893399330</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:34:21</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44389.81552083333</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1474,10 +1464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:21:04</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44389.80629629629</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1545,10 +1533,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:48:16</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44389.78351851852</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1612,10 +1598,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:30:53</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44389.77144675926</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1687,10 +1671,8 @@
           <t>4894691159</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:40:01</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44389.73612268519</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1762,10 +1744,8 @@
           <t>4888107205</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:59:52</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44389.66657407407</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1833,10 +1813,8 @@
           <t>4894108325</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:58:49</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44389.66584490741</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1904,10 +1882,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:16:47</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44389.6366550926</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1999,10 +1975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:32:48</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44389.60611111111</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -2078,10 +2052,8 @@
           <t>4893399330</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-12 13:48:30</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44389.57534722222</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2153,10 +2125,8 @@
           <t>4893399330</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-12 13:44:44</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44389.57273148148</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2224,10 +2194,8 @@
           <t>4888328256</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-12 13:31:15</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44389.56336805555</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2303,10 +2271,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-12 10:40:46</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44389.44497685185</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2370,10 +2336,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-12 10:40:14</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44389.44460648148</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2437,10 +2401,8 @@
           <t>4888097570</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-12 10:02:13</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44389.41820601852</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2504,10 +2466,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-12 09:21:48</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44389.39013888889</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2579,10 +2539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-12 08:32:00</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44389.35555555556</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2650,10 +2608,8 @@
           <t>4888097570</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-12 06:45:37</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44389.28167824074</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2725,10 +2681,8 @@
           <t>4891416761</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-12 06:44:49</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44389.28112268518</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2800,10 +2754,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-12 06:43:31</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44389.28021990741</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2875,10 +2827,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-12 06:41:18</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44389.27868055556</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2950,10 +2900,8 @@
           <t>4890607739</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-12 06:35:04</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44389.27435185185</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3025,10 +2973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-12 03:16:27</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44389.13642361111</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3104,10 +3050,8 @@
           <t>4891111597</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-12 02:20:25</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44389.09751157407</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3183,10 +3127,8 @@
           <t>4888107205</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-12 01:11:28</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44389.04962962963</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3258,10 +3200,8 @@
           <t>4890884020</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-12 01:08:38</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44389.04766203704</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3333,10 +3273,8 @@
           <t>4888840814</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-12 00:58:37</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44389.04070601852</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3408,10 +3346,8 @@
           <t>4890607739</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-12 00:12:41</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44389.00880787037</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3479,10 +3415,8 @@
           <t>4890582229</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-12 00:08:13</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44389.00570601852</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3550,10 +3484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-11 23:51:54</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44388.994375</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -3613,10 +3545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-11 23:34:47</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44388.98248842593</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3692,10 +3622,8 @@
           <t>4890165606</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-11 23:07:48</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44388.96375</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
@@ -3763,10 +3691,8 @@
           <t>4889879946</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-11 22:39:58</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44388.9444212963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3842,10 +3768,8 @@
           <t>4889899562</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-11 22:34:38</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44388.9407175926</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3917,10 +3841,8 @@
           <t>4889879946</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-11 22:31:56</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44388.93884259259</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3996,10 +3918,8 @@
           <t>4888328256</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-11 22:12:54</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44388.925625</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4075,10 +3995,8 @@
           <t>4889531049</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-11 21:44:09</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44388.90565972222</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4150,10 +4068,8 @@
           <t>4889525207</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-11 21:42:30</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44388.90451388889</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -4225,10 +4141,8 @@
           <t>4888958381</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-11 21:30:44</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44388.89634259259</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4296,10 +4210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-11 21:11:44</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44388.88314814815</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4367,10 +4279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-11 20:56:40</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44388.87268518518</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4442,10 +4352,8 @@
           <t>4888958381</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-11 20:22:08</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44388.8487037037</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4513,10 +4421,8 @@
           <t>4888644907</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-11 20:16:07</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44388.84452546296</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4584,10 +4490,8 @@
           <t>4888644907</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-11 20:14:58</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44388.84372685185</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4651,10 +4555,8 @@
           <t>4888868523</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-11 20:09:00</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44388.83958333333</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4718,10 +4620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-11 20:08:20</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44388.83912037037</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4785,10 +4685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-11 20:07:39</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44388.83864583333</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4856,10 +4754,8 @@
           <t>4888840814</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-11 20:03:33</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44388.83579861111</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4935,10 +4831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-11 20:02:13</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44388.83487268518</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5016,10 +4910,8 @@
           <t>4888786588</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:56:36</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44388.83097222223</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5091,10 +4983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:56:11</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44388.83068287037</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5162,10 +5052,8 @@
           <t>4888778683</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:55:19</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44388.83008101852</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5241,10 +5129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:52:59</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44388.82846064815</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5312,10 +5198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:48:44</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44388.82550925926</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5391,10 +5275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:48:30</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44388.82534722222</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5462,10 +5344,8 @@
           <t>4888718780</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:46:47</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44388.8241550926</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5537,10 +5417,8 @@
           <t>4888711565</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:44:44</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44388.82273148148</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5616,10 +5494,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:44:22</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44388.82247685185</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5687,10 +5563,8 @@
           <t>4888644907</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:43:23</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44388.82179398148</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5758,10 +5632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:41:06</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44388.82020833333</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5829,10 +5701,8 @@
           <t>4888674621</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:40:26</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44388.81974537037</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5904,10 +5774,8 @@
           <t>4888669798</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:39:02</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44388.81877314814</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5967,10 +5835,8 @@
           <t>4888644907</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:36:07</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44388.81674768519</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -6042,10 +5908,8 @@
           <t>4888630168</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:31:54</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44388.81381944445</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6117,10 +5981,8 @@
           <t>4888324804</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:30:41</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44388.81297453704</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6196,10 +6058,8 @@
           <t>4888507883</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:30:29</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44388.81283564815</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6263,10 +6123,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:30:13</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44388.81265046296</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6330,10 +6188,8 @@
           <t>4888468301</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:29:43</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44388.81230324074</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6397,10 +6253,8 @@
           <t>4888589294</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:26:58</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44388.81039351852</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6464,10 +6318,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:24:49</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44388.80890046297</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6543,10 +6395,8 @@
           <t>4888561773</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:21:53</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44388.80686342593</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6614,10 +6464,8 @@
           <t>4888556781</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:21:25</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44388.80653935186</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6706,10 +6554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:20:49</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44388.80612268519</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6790,10 +6636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:20:44</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44388.80606481482</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6869,10 +6713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:20:38</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44388.80599537037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6948,10 +6790,8 @@
           <t>4888468301</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:20:35</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44388.80596064815</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7027,10 +6867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:17:41</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44388.80394675926</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7102,10 +6940,8 @@
           <t>4888468301</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:16:31</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44388.80313657408</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7181,10 +7017,8 @@
           <t>4888425279</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:16:15</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44388.80295138889</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7252,10 +7086,8 @@
           <t>4888468301</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:15:02</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44388.80210648148</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7323,10 +7155,8 @@
           <t>4888132497</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:14:23</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44388.80165509259</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7399,10 +7229,8 @@
           <t>4888507883</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:13:57</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44388.80135416667</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7478,10 +7306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:13:47</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44388.80123842593</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7557,10 +7383,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:13:10</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44388.80081018519</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7663,10 +7487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:13:02</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44388.8007175926</v>
       </c>
       <c r="I98" t="n">
         <v>5</v>
@@ -7730,10 +7552,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:11:01</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44388.79931712963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7797,10 +7617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:10:53</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44388.79922453704</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7879,10 +7697,8 @@
           <t>4888425279</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:10:20</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44388.79884259259</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7950,10 +7766,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:09:24</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44388.79819444445</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8017,10 +7831,8 @@
           <t>4888468301</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:09:14</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44388.7980787037</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8096,10 +7908,8 @@
           <t>4888132497</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:08:40</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44388.79768518519</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8175,10 +7985,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:06:36</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44388.79625</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8250,10 +8058,8 @@
           <t>4888328256</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:06:15</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44388.79600694445</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8329,10 +8135,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:06:14</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44388.79599537037</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8404,10 +8208,8 @@
           <t>4888449834</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:05:46</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44388.7956712963</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8484,10 +8286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:05:43</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44388.79563657408</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8551,10 +8351,8 @@
           <t>4888328256</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:05:43</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44388.79563657408</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8624,10 +8422,8 @@
           <t>4888425279</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:04:34</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44388.79483796296</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8706,10 +8502,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:04:29</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44388.79478009259</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8781,10 +8575,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:03:01</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44388.79376157407</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8860,10 +8652,8 @@
           <t>4888425279</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:01:29</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44388.79269675926</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -8939,10 +8729,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:00:23</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44388.79193287037</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9018,10 +8806,8 @@
           <t>4888070164</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:59:00</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44388.79097222222</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9089,10 +8875,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:56:29</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44388.78922453704</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9164,10 +8948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:55:42</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44388.78868055555</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9239,10 +9021,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:55:39</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44388.78864583333</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9318,10 +9098,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:53:56</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44388.78745370371</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9393,10 +9171,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:51:31</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44388.78577546297</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9460,10 +9236,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:51:23</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44388.78568287037</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9535,10 +9309,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:50:24</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44388.785</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9610,10 +9382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:49:52</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44388.78462962963</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9681,10 +9451,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:49:41</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44388.78450231482</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9752,10 +9520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:49:40</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44388.78449074074</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9819,10 +9585,8 @@
           <t>4888097570</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:48:16</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44388.78351851852</v>
       </c>
       <c r="I127" t="n">
         <v>16</v>
@@ -9890,10 +9654,8 @@
           <t>4888324804</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:47:40</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44388.78310185186</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9961,10 +9723,8 @@
           <t>4888328256</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:47:09</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44388.78274305556</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -10032,10 +9792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:44:42</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44388.78104166667</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10104,10 +9862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:44:40</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44388.78101851852</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10171,10 +9927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:44:30</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44388.78090277778</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10250,10 +10004,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:43:24</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44388.78013888889</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10329,10 +10081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:42:34</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44388.77956018518</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10404,10 +10154,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:42:27</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44388.77947916667</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10471,10 +10219,8 @@
           <t>4888175133</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:42:17</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44388.77936342593</v>
       </c>
       <c r="I136" t="n">
         <v>14</v>
@@ -10550,10 +10296,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:42:16</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44388.77935185185</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10621,10 +10365,8 @@
           <t>4888295202</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:41:16</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44388.77865740741</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10692,10 +10434,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:38:56</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44388.77703703703</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10767,10 +10507,8 @@
           <t>4888121099</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:38:41</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44388.77686342593</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10838,10 +10576,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:38:16</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44388.77657407407</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10913,10 +10649,8 @@
           <t>4888121099</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:37:16</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44388.77587962963</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10984,10 +10718,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:36:37</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44388.77542824074</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -11055,10 +10787,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:36:37</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44388.77542824074</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11130,10 +10860,8 @@
           <t>4888254531</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:36:23</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44388.7752662037</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11209,10 +10937,8 @@
           <t>4888121099</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:35:53</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44388.77491898148</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11280,10 +11006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:35:28</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44388.77462962963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11355,10 +11079,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:35:17</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44388.77450231482</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11430,10 +11152,8 @@
           <t>4888256650</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:35:17</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44388.77450231482</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11505,10 +11225,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:34:22</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44388.77386574074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11580,10 +11298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:34:21</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44388.77385416667</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11651,10 +11367,8 @@
           <t>4888232033</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:33:38</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44388.77335648148</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11726,10 +11440,8 @@
           <t>4888232033</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:32:49</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44388.77278935185</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11805,10 +11517,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:32:44</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44388.77273148148</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11872,10 +11582,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:32:44</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44388.77273148148</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11943,10 +11651,8 @@
           <t>4888191217</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:32:04</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44388.77226851852</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12018,10 +11724,8 @@
           <t>4888055015</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:31:53</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44388.77214120371</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12097,10 +11801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:31:43</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44388.77202546296</v>
       </c>
       <c r="I158" t="n">
         <v>9</v>
@@ -12176,10 +11878,8 @@
           <t>4888227757</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:31:23</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44388.77179398148</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12247,10 +11947,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:30:48</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44388.77138888889</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12326,10 +12024,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:29:55</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44388.77077546297</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12397,10 +12093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:29:25</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44388.77042824074</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12472,10 +12166,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:28:56</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44388.77009259259</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12543,10 +12235,8 @@
           <t>4888191217</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:28:55</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44388.77008101852</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12622,10 +12312,8 @@
           <t>4888208001</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:28:49</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44388.77001157407</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12697,10 +12385,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:28:06</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44388.76951388889</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12772,10 +12458,8 @@
           <t>4888200050</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:27:03</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44388.76878472222</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12839,10 +12523,8 @@
           <t>4888191217</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:27:02</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44388.76877314815</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12914,10 +12596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:26:52</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44388.76865740741</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12993,10 +12673,8 @@
           <t>4888197548</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:26:52</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44388.76865740741</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13068,10 +12746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:26:30</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44388.76840277778</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13139,10 +12815,8 @@
           <t>4888191550</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:25:52</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44388.76796296296</v>
       </c>
       <c r="I172" t="n">
         <v>4</v>
@@ -13214,10 +12888,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:25:46</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44388.76789351852</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13285,10 +12957,8 @@
           <t>4888191217</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:25:43</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44388.76785879629</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13364,10 +13034,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:25:39</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44388.7678125</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13432,10 +13100,8 @@
           <t>4888190797</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:25:31</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44388.76771990741</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13503,10 +13169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:24:50</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44388.76724537037</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13574,10 +13238,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:24:46</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44388.76719907407</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13641,10 +13303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:24:42</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44388.76715277778</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13720,10 +13380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:24:34</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44388.76706018519</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13795,10 +13453,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:24:18</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44388.766875</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13870,10 +13526,8 @@
           <t>4888180407</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:23:45</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44388.76649305555</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13941,10 +13595,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:23:05</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44388.76603009259</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -14016,10 +13668,8 @@
           <t>4888175133</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:23:02</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44388.76599537037</v>
       </c>
       <c r="I184" t="n">
         <v>11</v>
@@ -14091,10 +13741,8 @@
           <t>4888121099</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:22:56</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44388.76592592592</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14162,10 +13810,8 @@
           <t>4888164727</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:22:51</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44388.76586805555</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14225,10 +13871,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:22:40</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44388.76574074074</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -14292,10 +13936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:22:27</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44388.76559027778</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14363,10 +14005,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:22:19</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44388.76549768518</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14438,10 +14078,8 @@
           <t>4888162100</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:21:40</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44388.7650462963</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14513,10 +14151,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:21:30</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44388.76493055555</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14588,10 +14224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:21:09</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44388.7646875</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14667,10 +14301,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:20:58</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44388.76456018518</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14742,10 +14374,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:20:54</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44388.76451388889</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14813,10 +14443,8 @@
           <t>4888149785</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:20:39</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44388.76434027778</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14892,10 +14520,8 @@
           <t>4888153276</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:20:38</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44388.76432870371</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14967,10 +14593,8 @@
           <t>4888147346</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:20:35</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44388.76429398148</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -15042,10 +14666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:20:04</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44388.76393518518</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15113,10 +14735,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:19:41</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44388.76366898148</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15192,10 +14812,8 @@
           <t>4888147346</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:19:33</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44388.76357638889</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15271,10 +14889,8 @@
           <t>4888100289</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:19:01</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44388.76320601852</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15338,10 +14954,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:18:57</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44388.76315972222</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15417,10 +15031,8 @@
           <t>4888070164</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:18:33</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44388.76288194444</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15492,10 +15104,8 @@
           <t>4888107205</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:18:29</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44388.76283564815</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15568,10 +15178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:17:58</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44388.76247685185</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15647,10 +15255,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:17:51</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44388.76239583334</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15718,10 +15324,8 @@
           <t>4888132497</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:17:26</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44388.76210648148</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15794,10 +15398,8 @@
           <t>4888100289</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:17:15</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44388.76197916667</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15861,10 +15463,8 @@
           <t>4888100289</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:17:13</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44388.76195601852</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15928,10 +15528,8 @@
           <t>4888131167</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:16:53</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44388.76172453703</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -16007,10 +15605,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:16:49</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44388.76167824074</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -16078,10 +15674,8 @@
           <t>4888107205</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:15:49</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44388.7609837963</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16149,10 +15743,8 @@
           <t>4888118089</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:15:32</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44388.76078703703</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -16216,10 +15808,8 @@
           <t>4888121099</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:15:24</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44388.76069444444</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16287,10 +15877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:15:23</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44388.76068287037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16366,10 +15954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:15:13</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44388.76056712963</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16437,10 +16023,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:15:13</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44388.76056712963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16516,10 +16100,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:15:06</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44388.76048611111</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16587,10 +16169,8 @@
           <t>4888100289</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:15:01</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44388.76042824074</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16666,10 +16246,8 @@
           <t>4888116794</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:58</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44388.76039351852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16733,10 +16311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:55</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44388.76035879629</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16808,10 +16384,8 @@
           <t>4888109393</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:40</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44388.76018518519</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16922,10 +16496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:31</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44388.76008101852</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -17002,10 +16574,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:30</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44388.76006944444</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17112,10 +16682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:27</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44388.76003472223</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17192,10 +16760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:25</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44388.76001157407</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17264,10 +16830,8 @@
           <t>4888108750</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:25</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44388.76001157407</v>
       </c>
       <c r="I227" t="n">
         <v>4</v>
@@ -17339,10 +16903,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:25</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44388.76001157407</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17447,10 +17009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:22</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44388.75997685185</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17527,10 +17087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:19</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44388.75994212963</v>
       </c>
       <c r="I230" t="n">
         <v>3</v>
@@ -17607,10 +17165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:18</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44388.75993055556</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17722,10 +17278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:16</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44388.75990740741</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17802,10 +17356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:14:12</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44388.75986111111</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17865,10 +17417,8 @@
           <t>4888073657</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:57</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44388.7596875</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17974,10 +17524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:55</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44388.75966435186</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -18054,10 +17602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:47</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44388.75957175926</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -18133,10 +17679,8 @@
           <t>4888107205</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:47</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44388.75957175926</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -18209,10 +17753,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:41</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44388.75950231482</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18280,10 +17822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:36</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44388.75944444445</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18359,10 +17899,8 @@
           <t>4888106746</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:36</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44388.75944444445</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
@@ -18438,10 +17976,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:14</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44388.75918981482</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18634,10 +18170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:08</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44388.75912037037</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18714,10 +18248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:08</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44388.75912037037</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18789,10 +18321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:13:00</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44388.75902777778</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18935,10 +18465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:58</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44388.75900462963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -19015,10 +18543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:58</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44388.75900462963</v>
       </c>
       <c r="I246" t="n">
         <v>6</v>
@@ -19090,10 +18616,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:57</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44388.75899305556</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -19250,10 +18774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:48</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44388.75888888889</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -19330,10 +18852,8 @@
           <t>4888099642</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:44</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44388.75884259259</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -19401,10 +18921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:40</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44388.75879629629</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -19468,10 +18986,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:38</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44388.75877314815</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -19543,10 +19059,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:31</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44388.75869212963</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19706,10 +19220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:20</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44388.75856481482</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19786,10 +19298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:16</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44388.75851851852</v>
       </c>
       <c r="I254" t="n">
         <v>3</v>
@@ -19857,10 +19367,8 @@
           <t>4888100289</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:09</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44388.7584375</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19924,10 +19432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:12:04</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44388.75837962963</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -20078,10 +19584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:56</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44388.75828703704</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -20158,10 +19662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:54</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44388.75826388889</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -20237,10 +19739,8 @@
           <t>4888097570</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:52</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44388.75824074074</v>
       </c>
       <c r="I259" t="n">
         <v>30</v>
@@ -20312,10 +19812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:45</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44388.75815972222</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -20430,10 +19928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:43</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44388.75813657408</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -20510,10 +20006,8 @@
           <t>4888097073</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:39</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44388.75809027778</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -20585,10 +20079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:37</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44388.75806712963</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -20689,10 +20181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:35</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44388.75804398148</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -20852,10 +20342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:24</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44388.75791666667</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -20932,10 +20420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:19</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44388.7578587963</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -21011,10 +20497,8 @@
           <t>4888091424</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:14</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44388.75780092592</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -21143,10 +20627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:13</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44388.75778935185</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -21223,10 +20705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:11:03</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44388.75767361111</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -21302,10 +20782,8 @@
           <t>4888095261</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:53</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44388.75755787037</v>
       </c>
       <c r="I270" t="n">
         <v>4</v>
@@ -21381,10 +20859,8 @@
           <t>4888090617</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:51</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44388.75753472222</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -21476,10 +20952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:49</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44388.75751157408</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -21556,10 +21030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:44</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44388.75745370371</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -21702,10 +21174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:42</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44388.75743055555</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -21782,10 +21252,8 @@
           <t>4888086952</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:40</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44388.75740740741</v>
       </c>
       <c r="I275" t="n">
         <v>9</v>
@@ -21861,10 +21329,8 @@
           <t>4888079914</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:32</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44388.75731481481</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -21932,10 +21398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:31</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44388.75730324074</v>
       </c>
       <c r="I277" t="n">
         <v>42</v>
@@ -22086,10 +21550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:30</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44388.75729166667</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -22166,10 +21628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:29</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44388.75728009259</v>
       </c>
       <c r="I279" t="n">
         <v>18</v>
@@ -22245,10 +21705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:29</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44388.75728009259</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -22365,10 +21823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:23</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44388.75721064815</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -22445,10 +21901,8 @@
           <t>4888070164</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:18</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44388.75715277778</v>
       </c>
       <c r="I282" t="n">
         <v>11</v>
@@ -22524,10 +21978,8 @@
           <t>4888079169</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:10</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44388.75706018518</v>
       </c>
       <c r="I283" t="n">
         <v>16</v>
@@ -22620,10 +22072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:10:09</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44388.75704861111</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -22743,10 +22193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:58</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44388.7569212963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -22852,10 +22300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:52</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44388.75685185185</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -22932,10 +22378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:47</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44388.75679398148</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -23050,10 +22494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:37</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44388.75667824074</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -23130,10 +22572,8 @@
           <t>4888082012</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:32</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44388.75662037037</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -23205,10 +22645,8 @@
           <t>4888041109</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:30</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44388.75659722222</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -23276,10 +22714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:27</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44388.7565625</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -23355,10 +22791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:26</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44388.75655092593</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -23491,10 +22925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:24</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44388.75652777778</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -23571,10 +23003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:24</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44388.75652777778</v>
       </c>
       <c r="I294" t="n">
         <v>12</v>
@@ -23650,10 +23080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:23</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44388.75651620371</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -23721,10 +23149,8 @@
           <t>4888034267</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:20</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44388.75648148148</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -23800,10 +23226,8 @@
           <t>4888073657</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:14</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44388.75641203704</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -23981,10 +23405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:09:12</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44388.75638888889</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -24134,10 +23556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:53</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44388.75616898148</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -24313,10 +23733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:43</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44388.75605324074</v>
       </c>
       <c r="I300" t="n">
         <v>2</v>
@@ -24492,10 +23910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:35</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44388.75596064814</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -24572,10 +23988,8 @@
           <t>4888069630</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:33</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44388.7559375</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -24651,10 +24065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:30</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44388.75590277778</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -24722,10 +24134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:30</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44388.75590277778</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -24797,10 +24207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:28</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44388.75587962963</v>
       </c>
       <c r="I305" t="n">
         <v>34</v>
@@ -24868,10 +24276,8 @@
           <t>4888041109</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:27</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44388.75586805555</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -24935,10 +24341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:23</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44388.75582175926</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -25006,10 +24410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:17</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44388.75575231481</v>
       </c>
       <c r="I308" t="n">
         <v>8</v>
@@ -25085,10 +24487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:14</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44388.75571759259</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -25242,10 +24642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:04</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44388.75560185185</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -25322,10 +24720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:08:01</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44388.75556712963</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -25440,10 +24836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:07:55</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44388.75549768518</v>
       </c>
       <c r="I312" t="n">
         <v>8</v>
@@ -25520,10 +24914,8 @@
           <t>4888055015</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:07:54</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44388.75548611111</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -25596,10 +24988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:07:45</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44388.75538194444</v>
       </c>
       <c r="I314" t="n">
         <v>142</v>
@@ -25675,10 +25065,8 @@
           <t>4888070164</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:07:44</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44388.75537037037</v>
       </c>
       <c r="I315" t="n">
         <v>27</v>
@@ -25750,10 +25138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:07:43</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44388.7553587963</v>
       </c>
       <c r="I316" t="n">
         <v>38</v>
@@ -25817,10 +25203,8 @@
           <t>4888041109</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:07:21</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44388.75510416667</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -25892,10 +25276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:07:19</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44388.75508101852</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -25959,10 +25341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:07:06</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44388.75493055556</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -26038,10 +25418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:07:03</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44388.75489583334</v>
       </c>
       <c r="I320" t="n">
         <v>36</v>
@@ -26109,10 +25487,8 @@
           <t>4888062264</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:06:59</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44388.75484953704</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -26184,10 +25560,8 @@
           <t>4888055015</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:06:57</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44388.75482638889</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -26259,10 +25633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:06:34</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44388.75456018518</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -26326,10 +25698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:06:21</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44388.75440972222</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -26394,10 +25764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:06:17</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44388.75436342593</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -26465,10 +25833,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:06:10</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44388.7542824074</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -26536,10 +25902,8 @@
           <t>4888041109</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:06:00</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44388.75416666667</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -26603,10 +25967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:05:55</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44388.7541087963</v>
       </c>
       <c r="I328" t="n">
         <v>18</v>
@@ -26670,10 +26032,8 @@
           <t>4888055871</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:05:53</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44388.75408564815</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -26733,10 +26093,8 @@
           <t>4888055015</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:05:32</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44388.7538425926</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -26808,10 +26166,8 @@
           <t>4888044645</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:05:23</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44388.75373842593</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -26883,10 +26239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:05:04</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44388.75351851852</v>
       </c>
       <c r="I332" t="n">
         <v>103</v>
@@ -26950,10 +26304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:05:01</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44388.7534837963</v>
       </c>
       <c r="I333" t="n">
         <v>14</v>
@@ -27017,10 +26369,8 @@
           <t>4888047764</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:04:57</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44388.7534375</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -27088,10 +26438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:04:50</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44388.75335648148</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -27163,10 +26511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:04:49</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44388.75334490741</v>
       </c>
       <c r="I336" t="n">
         <v>97</v>
@@ -27234,10 +26580,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:04:36</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44388.75319444444</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -27313,10 +26657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:04:32</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44388.75314814815</v>
       </c>
       <c r="I338" t="n">
         <v>691</v>
@@ -27384,10 +26726,8 @@
           <t>4888041954</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:04:17</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44388.75297453703</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -27455,10 +26795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:04:16</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44388.75296296296</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -27534,10 +26872,8 @@
           <t>4888034267</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:04:08</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44388.75287037037</v>
       </c>
       <c r="I341" t="n">
         <v>3</v>
@@ -27609,10 +26945,8 @@
           <t>4888041109</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:03:56</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44388.75273148148</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -27684,10 +27018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:03:53</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44388.75269675926</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -27751,10 +27083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:03:46</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44388.75261574074</v>
       </c>
       <c r="I344" t="n">
         <v>5</v>
@@ -27822,10 +27152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:03:30</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44388.75243055556</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -27885,10 +27213,8 @@
           <t>4888034911</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:03:24</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44388.75236111111</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -27956,10 +27282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:03:16</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44388.75226851852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -28023,10 +27347,8 @@
           <t>4888034267</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:03:08</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44388.75217592593</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -28086,10 +27408,8 @@
           <t>4888028632</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:03:00</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44388.75208333333</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -28157,10 +27477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:02:57</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44388.75204861111</v>
       </c>
       <c r="I350" t="n">
         <v>241</v>
@@ -28232,10 +27550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:02:56</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44388.75203703704</v>
       </c>
       <c r="I351" t="n">
         <v>29</v>
@@ -28299,10 +27615,8 @@
           <t>4888028016</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:02:43</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44388.75188657407</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -28374,10 +27688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:02:39</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44388.75184027778</v>
       </c>
       <c r="I353" t="n">
         <v>32</v>
@@ -28449,10 +27761,8 @@
           <t>4888027237</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:02:23</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44388.75165509259</v>
       </c>
       <c r="I354" t="n">
         <v>4</v>
@@ -28516,10 +27826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:02:18</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44388.75159722222</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -28587,10 +27895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:01:48</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44388.75125</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -28658,10 +27964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:01:26</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44388.75099537037</v>
       </c>
       <c r="I357" t="n">
         <v>32</v>
@@ -28737,10 +28041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:00:58</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44388.75067129629</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -28812,10 +28114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:00:55</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44388.75063657408</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -28891,10 +28191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:00:43</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44388.75049768519</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -28958,10 +28256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:00:36</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44388.75041666667</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -29029,10 +28325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:00:33</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44388.75038194445</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -29108,10 +28402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:00:27</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44388.7503125</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
